--- a/biology/Biologie cellulaire et moléculaire/Nomenclature_des_gènes_de_levure/Nomenclature_des_gènes_de_levure.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Nomenclature_des_gènes_de_levure/Nomenclature_des_gènes_de_levure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nomenclature_des_g%C3%A8nes_de_levure</t>
+          <t>Nomenclature_des_gènes_de_levure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom des gènes de levure contient 3 lettres et jusqu’à 3 chiffres : RHO1, RAD21… Le choix de ces 3 lettres est souvent lié à la fonction du gène.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nomenclature_des_g%C3%A8nes_de_levure</t>
+          <t>Nomenclature_des_gènes_de_levure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,161 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gène sauvage
-Le gène sauvage est écrit en majuscule et en italique : RHO1, RAD21.
-Gène à mutation récessive
-Les gènes portant une mutation récessive sont écrits en minuscule et en italique : rho1, rad21.
-Allèles mutants
-Les allèles mutants sont représentés par un tiret et un nombre : rho1-23, rad21-456.
-Protéine
-Le produit d’un gène (la protéine) est écrit avec une lettre majuscule suivie de deux minuscules sans italique. Un p est souvent ajouté à la fin : Rho1p, Rad21p
-Autres
-Enfin, de nombreux gènes identifiés lors du séquençage du génome restent sans fonction connue. Ils sont nommés YDR518C, YML016W..., avec:
+          <t>Gène sauvage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène sauvage est écrit en majuscule et en italique : RHO1, RAD21.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nomenclature_des_gènes_de_levure</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nomenclature_des_g%C3%A8nes_de_levure</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Choix des lettres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gène à mutation récessive</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gènes portant une mutation récessive sont écrits en minuscule et en italique : rho1, rad21.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nomenclature_des_gènes_de_levure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nomenclature_des_g%C3%A8nes_de_levure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Choix des lettres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allèles mutants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les allèles mutants sont représentés par un tiret et un nombre : rho1-23, rad21-456.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nomenclature_des_gènes_de_levure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nomenclature_des_g%C3%A8nes_de_levure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Choix des lettres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Protéine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le produit d’un gène (la protéine) est écrit avec une lettre majuscule suivie de deux minuscules sans italique. Un p est souvent ajouté à la fin : Rho1p, Rad21p
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nomenclature_des_gènes_de_levure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nomenclature_des_g%C3%A8nes_de_levure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Choix des lettres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Enfin, de nombreux gènes identifiés lors du séquençage du génome restent sans fonction connue. Ils sont nommés YDR518C, YML016W..., avec:
 Y pour yeast
 La deuxième lettre désigne le chromosome (D=IV, M=XIII....)
 L ou R désigne le bras droit (Right) ou gauche (Left) du chromosome.
